--- a/framework-web/app/aml/doc/aml_rules.xlsx
+++ b/framework-web/app/aml/doc/aml_rules.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="200" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>Incoming Wire Transfers</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Rule Group</t>
   </si>
   <si>
-    <t>Velocity</t>
-  </si>
-  <si>
     <t>High Risk Geo Transfers</t>
   </si>
   <si>
@@ -154,10 +151,13 @@
     <t>date_sub(7/1/2018,lokkback)</t>
   </si>
   <si>
-    <t>in_wire_transfers_30d_count</t>
-  </si>
-  <si>
-    <t>in_wire_transfers_30d_amount</t>
+    <t>Transaction Velocity</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -213,8 +213,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -312,7 +420,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="197">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -357,6 +465,60 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -401,6 +563,60 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -730,716 +946,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:11">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
       <c r="F7">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I7">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
       <c r="F8">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
       <c r="F10">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
       <c r="F11">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
       <c r="F13">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I13">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
       <c r="F14">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I14">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3000</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>10000</v>
+      </c>
+      <c r="K15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3000</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>10000</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3000</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>10000</v>
+      </c>
+      <c r="K18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3000</v>
-      </c>
-      <c r="G15">
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>10000</v>
-      </c>
-      <c r="J15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>3000</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3000</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
+      <c r="K20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>3000</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>10000</v>
+      </c>
+      <c r="K21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>3000</v>
-      </c>
-      <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>10000</v>
-      </c>
-      <c r="J16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>3000</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>10000</v>
-      </c>
-      <c r="J17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>3000</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>10000</v>
-      </c>
-      <c r="J18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>3000</v>
-      </c>
-      <c r="G19">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>10000</v>
-      </c>
-      <c r="J19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>3000</v>
-      </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>10000</v>
-      </c>
-      <c r="J20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>3000</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>10000</v>
-      </c>
-      <c r="J21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
       <c r="F22">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
+        <v>10000</v>
+      </c>
+      <c r="K22">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1455,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G12:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1469,23 +1740,23 @@
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="7:12">
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" t="s">
         <v>41</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="7:12">
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2">
         <v>43252</v>
@@ -1496,7 +1767,7 @@
     </row>
     <row r="16" spans="7:12">
       <c r="L16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="10:10">
